--- a/EmployeeManagement/TestData/Orange_data.xlsx
+++ b/EmployeeManagement/TestData/Orange_data.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artig\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artig\Desktop\CSharp\AutomationFramework\EmployeeManagement\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{955C75EC-4F4E-42D0-BFA2-96266352BA95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC8220D-0AEE-4AAE-9081-615353E0AA0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="0" windowWidth="15420" windowHeight="10200" xr2:uid="{D312AE33-4EDC-4F8A-97F4-5E6C625F05D9}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="15420" windowHeight="10200" activeTab="1" xr2:uid="{D312AE33-4EDC-4F8A-97F4-5E6C625F05D9}"/>
   </bookViews>
   <sheets>
     <sheet name="InvalidLoginTest" sheetId="1" r:id="rId1"/>
+    <sheet name="AddValidEmployeeTest" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>username</t>
   </si>
@@ -66,16 +67,64 @@
   </si>
   <si>
     <t>saul123</t>
+  </si>
+  <si>
+    <t>first name</t>
+  </si>
+  <si>
+    <t>middlename</t>
+  </si>
+  <si>
+    <t>last name</t>
+  </si>
+  <si>
+    <t>actual result</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>admin123</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Wick</t>
+  </si>
+  <si>
+    <t>John Wick</t>
+  </si>
+  <si>
+    <t>Saul</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>Goodman</t>
+  </si>
+  <si>
+    <t>Saul Goodman</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -419,7 +468,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FF487B7-F233-4ABD-8C34-594A23868C94}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -477,4 +526,88 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{637C8629-B1DF-4465-AC8D-A8BA43E766DB}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.453125" customWidth="1"/>
+    <col min="2" max="2" width="13.81640625" customWidth="1"/>
+    <col min="3" max="3" width="13.08984375" customWidth="1"/>
+    <col min="4" max="4" width="14.81640625" customWidth="1"/>
+    <col min="5" max="5" width="21.81640625" customWidth="1"/>
+    <col min="6" max="6" width="19.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>